--- a/co-IP/31Jul2024_Prime_t24_t36_t48_co-IP_MassSpec_proteins_TAZ_WT.xlsx
+++ b/co-IP/31Jul2024_Prime_t24_t36_t48_co-IP_MassSpec_proteins_TAZ_WT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvsan\code\Hippo-Pathway-and-PSM-Formation\co-IP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{370655D2-A0DA-4560-9D98-BAC52FAB8FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928297BE-9AA8-4AAE-817B-EFB421D6BEA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1389,8 +1389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1398,11 +1398,11 @@
     <col min="2" max="2" width="14.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="75.7265625" customWidth="1"/>
-    <col min="5" max="5" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.26953125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="7.1796875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="17.453125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="10.453125" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="20.7265625" customWidth="1"/>
     <col min="11" max="14" width="24.453125" bestFit="1" customWidth="1"/>
   </cols>
